--- a/doc/Bericht/05_Technischer Bericht/03_Vorstudie/Passantenanalyse_Auswertung.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/03_Vorstudie/Passantenanalyse_Auswertung.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="210">
   <si>
     <t>Zeit</t>
   </si>
@@ -18821,10 +18821,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M550"/>
+  <dimension ref="A1:Q550"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18840,15 +18840,16 @@
     <col min="10" max="10" width="20.5703125" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>204</v>
       </c>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
         <f>'Gesammelte Daten'!C1</f>
         <v>Anz. Personen</v>
@@ -18882,8 +18883,20 @@
       <c r="M2" s="4" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF('Gesammelte Daten'!D2=0,"",'Gesammelte Daten'!C2)</f>
         <v>1</v>
@@ -18922,7 +18935,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF('Gesammelte Daten'!D3=0,"",'Gesammelte Daten'!C3)</f>
         <v>1</v>
@@ -18961,7 +18974,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f>IF('Gesammelte Daten'!D4=0,"",'Gesammelte Daten'!C4)</f>
         <v>2</v>
@@ -19000,7 +19013,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="str">
         <f>IF('Gesammelte Daten'!D5=0,"",'Gesammelte Daten'!C5)</f>
         <v/>
@@ -19039,7 +19052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>IF('Gesammelte Daten'!D6=0,"",'Gesammelte Daten'!C6)</f>
         <v>1</v>
@@ -19078,7 +19091,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>IF('Gesammelte Daten'!D7=0,"",'Gesammelte Daten'!C7)</f>
         <v>3</v>
@@ -19117,7 +19130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f>IF('Gesammelte Daten'!D8=0,"",'Gesammelte Daten'!C8)</f>
         <v>1</v>
@@ -19156,7 +19169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="str">
         <f>IF('Gesammelte Daten'!D9=0,"",'Gesammelte Daten'!C9)</f>
         <v/>
@@ -19195,7 +19208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <f>IF('Gesammelte Daten'!D10=0,"",'Gesammelte Daten'!C10)</f>
         <v>1</v>
@@ -19234,7 +19247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f>IF('Gesammelte Daten'!D11=0,"",'Gesammelte Daten'!C11)</f>
         <v>2</v>
@@ -19273,7 +19286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <f>IF('Gesammelte Daten'!D12=0,"",'Gesammelte Daten'!C12)</f>
         <v>1</v>
@@ -19312,7 +19325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <f>IF('Gesammelte Daten'!D13=0,"",'Gesammelte Daten'!C13)</f>
         <v>1</v>
@@ -19351,7 +19364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <f>IF('Gesammelte Daten'!D14=0,"",'Gesammelte Daten'!C14)</f>
         <v>3</v>
@@ -19390,7 +19403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <f>IF('Gesammelte Daten'!D15=0,"",'Gesammelte Daten'!C15)</f>
         <v>1</v>

--- a/doc/Bericht/05_Technischer Bericht/03_Vorstudie/Passantenanalyse_Auswertung.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/03_Vorstudie/Passantenanalyse_Auswertung.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="212">
   <si>
     <t>Zeit</t>
   </si>
@@ -649,11 +649,20 @@
   <si>
     <t>Anzahl</t>
   </si>
+  <si>
+    <t>Auslastung</t>
+  </si>
+  <si>
+    <t>Auslastung gesamt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -683,7 +692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -701,6 +710,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1026,11 +1039,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101071104"/>
-        <c:axId val="101072896"/>
+        <c:axId val="104983168"/>
+        <c:axId val="107774336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101071104"/>
+        <c:axId val="104983168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1039,7 +1052,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101072896"/>
+        <c:crossAx val="107774336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1047,7 +1060,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101072896"/>
+        <c:axId val="107774336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1058,7 +1071,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101071104"/>
+        <c:crossAx val="104983168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1207,11 +1220,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="100741504"/>
-        <c:axId val="100743424"/>
+        <c:axId val="108282624"/>
+        <c:axId val="108284544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100741504"/>
+        <c:axId val="108282624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1238,7 +1251,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100743424"/>
+        <c:crossAx val="108284544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1246,7 +1259,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100743424"/>
+        <c:axId val="108284544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1257,7 +1270,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100741504"/>
+        <c:crossAx val="108282624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1318,7 +1331,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1434,11 +1446,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106564224"/>
-        <c:axId val="106578688"/>
+        <c:axId val="108530688"/>
+        <c:axId val="108545152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106564224"/>
+        <c:axId val="108530688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1460,14 +1472,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106578688"/>
+        <c:crossAx val="108545152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1475,7 +1486,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106578688"/>
+        <c:axId val="108545152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1486,14 +1497,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106564224"/>
+        <c:crossAx val="108530688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -18823,8 +18833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q550"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18838,9 +18848,11 @@
     <col min="7" max="7" width="23.42578125" style="6" customWidth="1"/>
     <col min="8" max="8" width="27.5703125" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="8" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" customWidth="1"/>
     <col min="14" max="14" width="11.85546875" customWidth="1"/>
+    <col min="15" max="15" width="24" style="8" customWidth="1"/>
+    <col min="16" max="16" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -18877,24 +18889,22 @@
       <c r="K2" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>209</v>
+      <c r="O2" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>209</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -18925,14 +18935,26 @@
       </c>
       <c r="K3">
         <f>SUMIF($G$3:$G$277, J3, $D$3:$D$277)</f>
-        <v>90</v>
-      </c>
-      <c r="L3" s="7">
+        <v>112</v>
+      </c>
+      <c r="L3" s="8">
+        <f>(K3/SUM($K$3:$K$11))</f>
+        <v>0.40727272727272729</v>
+      </c>
+      <c r="M3" s="7">
         <v>5</v>
       </c>
-      <c r="M3">
-        <f>SUMIF($H$3:$H$277, L3,$D$3:$D$277)</f>
-        <v>73</v>
+      <c r="N3">
+        <f>SUMIF($H$3:$H$277, M3,$D$3:$D$277)</f>
+        <v>86</v>
+      </c>
+      <c r="O3" s="8">
+        <f>(N3/SUM($N$3:$N$11))</f>
+        <v>0.31272727272727274</v>
+      </c>
+      <c r="P3" s="8">
+        <f>((L3+O3)/2)</f>
+        <v>0.36</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -18964,14 +18986,26 @@
       </c>
       <c r="K4">
         <f>SUMIF($G$3:$G$277, J4, $D$3:$D$277)</f>
-        <v>60</v>
-      </c>
-      <c r="L4" s="7">
-        <v>4</v>
-      </c>
-      <c r="M4">
-        <f>SUMIF($H$3:$H$277, L4,$D$3:$D$277)</f>
-        <v>63</v>
+        <v>74</v>
+      </c>
+      <c r="L4" s="8">
+        <f t="shared" ref="L4:L11" si="0">(K4/SUM($K$3:$K$11))</f>
+        <v>0.2690909090909091</v>
+      </c>
+      <c r="M4" s="7">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <f>SUMIF($H$3:$H$277, M4,$D$3:$D$277)</f>
+        <v>79</v>
+      </c>
+      <c r="O4" s="8">
+        <f t="shared" ref="O4:O11" si="1">(N4/SUM($N$3:$N$11))</f>
+        <v>0.28727272727272729</v>
+      </c>
+      <c r="P4" s="8">
+        <f t="shared" ref="P4:P11" si="2">((L4+O4)/2)</f>
+        <v>0.2781818181818182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -19003,14 +19037,26 @@
       </c>
       <c r="K5">
         <f>SUMIF($G$3:$G$277, J5, $D$3:$D$277)</f>
-        <v>30</v>
-      </c>
-      <c r="L5" s="7">
+        <v>42</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.15272727272727274</v>
+      </c>
+      <c r="M5" s="7">
         <v>6</v>
       </c>
-      <c r="M5">
-        <f>SUMIF($H$3:$H$277, L5,$D$3:$D$277)</f>
-        <v>39</v>
+      <c r="N5">
+        <f>SUMIF($H$3:$H$277, M5,$D$3:$D$277)</f>
+        <v>44</v>
+      </c>
+      <c r="O5" s="8">
+        <f t="shared" si="1"/>
+        <v>0.16</v>
+      </c>
+      <c r="P5" s="8">
+        <f t="shared" si="2"/>
+        <v>0.15636363636363637</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -19038,18 +19084,30 @@
         <v>2</v>
       </c>
       <c r="J6" s="7">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="K6">
         <f>SUMIF($G$3:$G$277, J6, $D$3:$D$277)</f>
-        <v>24</v>
-      </c>
-      <c r="L6" s="7">
-        <v>3</v>
-      </c>
-      <c r="M6">
-        <f>SUMIF($H$3:$H$277, L6,$D$3:$D$277)</f>
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="0"/>
+        <v>8.3636363636363634E-2</v>
+      </c>
+      <c r="M6" s="7">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <f>SUMIF($H$3:$H$277, M6,$D$3:$D$277)</f>
+        <v>35</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" si="1"/>
+        <v>0.12727272727272726</v>
+      </c>
+      <c r="P6" s="8">
+        <f t="shared" si="2"/>
+        <v>0.10545454545454544</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -19077,18 +19135,30 @@
         <v>2</v>
       </c>
       <c r="J7" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K7">
         <f>SUMIF($G$3:$G$277, J7, $D$3:$D$277)</f>
-        <v>21</v>
-      </c>
-      <c r="L7" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="M7">
-        <f>SUMIF($H$3:$H$277, L7,$D$3:$D$277)</f>
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="0"/>
+        <v>6.545454545454546E-2</v>
+      </c>
+      <c r="M7" s="7">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <f>SUMIF($H$3:$H$277, M7,$D$3:$D$277)</f>
+        <v>15</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" si="1"/>
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -19116,18 +19186,30 @@
         <v>2</v>
       </c>
       <c r="J8" s="7">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="K8">
         <f>SUMIF($G$3:$G$277, J8, $D$3:$D$277)</f>
-        <v>20</v>
-      </c>
-      <c r="L8" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="M8">
-        <f>SUMIF($H$3:$H$277, L8,$D$3:$D$277)</f>
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="0"/>
+        <v>1.090909090909091E-2</v>
+      </c>
+      <c r="M8" s="7">
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <f>SUMIF($H$3:$H$277, M8,$D$3:$D$277)</f>
+        <v>9</v>
+      </c>
+      <c r="O8" s="8">
+        <f t="shared" si="1"/>
+        <v>3.272727272727273E-2</v>
+      </c>
+      <c r="P8" s="8">
+        <f t="shared" si="2"/>
+        <v>2.181818181818182E-2</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -19149,24 +19231,36 @@
         <v>62</v>
       </c>
       <c r="G9" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H9" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="J9" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K9">
         <f>SUMIF($G$3:$G$277, J9, $D$3:$D$277)</f>
-        <v>16</v>
-      </c>
-      <c r="L9" s="7">
+        <v>2</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="0"/>
+        <v>7.2727272727272727E-3</v>
+      </c>
+      <c r="M9" s="7">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <f>SUMIF($H$3:$H$277, M9,$D$3:$D$277)</f>
         <v>7</v>
       </c>
-      <c r="M9">
-        <f>SUMIF($H$3:$H$277, L9,$D$3:$D$277)</f>
-        <v>15</v>
+      <c r="O9" s="8">
+        <f t="shared" si="1"/>
+        <v>2.5454545454545455E-2</v>
+      </c>
+      <c r="P9" s="8">
+        <f t="shared" si="2"/>
+        <v>1.6363636363636365E-2</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -19188,24 +19282,36 @@
         <v>62</v>
       </c>
       <c r="G10" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H10" s="7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="J10" s="7">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <f>SUMIF($G$3:$G$277, J10, $D$3:$D$277)</f>
-        <v>4</v>
-      </c>
-      <c r="L10" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="M10">
-        <f>SUMIF($H$3:$H$277, L10,$D$3:$D$277)</f>
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="0"/>
+        <v>3.6363636363636364E-3</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f>SUMIF($H$3:$H$277, M10,$D$3:$D$277)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="8">
+        <f t="shared" si="2"/>
+        <v>1.8181818181818182E-3</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -19227,24 +19333,36 @@
         <v>62</v>
       </c>
       <c r="G11" s="7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H11" s="7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="J11" s="7">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="K11">
         <f>SUMIF($G$3:$G$277, J11, $D$3:$D$277)</f>
-        <v>4</v>
-      </c>
-      <c r="L11" s="7">
-        <v>8</v>
-      </c>
-      <c r="M11">
-        <f>SUMIF($H$3:$H$277, L11,$D$3:$D$277)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
         <v>9</v>
+      </c>
+      <c r="N11">
+        <f>SUMIF($H$3:$H$277, M11,$D$3:$D$277)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -19271,20 +19389,6 @@
       <c r="H12" s="6">
         <v>3</v>
       </c>
-      <c r="J12" s="7">
-        <v>8</v>
-      </c>
-      <c r="K12">
-        <f>SUMIF($G$3:$G$277, J12, $D$3:$D$277)</f>
-        <v>3</v>
-      </c>
-      <c r="L12" s="7">
-        <v>2</v>
-      </c>
-      <c r="M12">
-        <f>SUMIF($H$3:$H$277, L12,$D$3:$D$277)</f>
-        <v>6</v>
-      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
@@ -19310,20 +19414,6 @@
       <c r="H13" s="6">
         <v>3</v>
       </c>
-      <c r="J13" s="7">
-        <v>7</v>
-      </c>
-      <c r="K13">
-        <f>SUMIF($G$3:$G$277, J13, $D$3:$D$277)</f>
-        <v>2</v>
-      </c>
-      <c r="L13" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="M13">
-        <f>SUMIF($H$3:$H$277, L13,$D$3:$D$277)</f>
-        <v>3</v>
-      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
@@ -19349,20 +19439,6 @@
       <c r="H14" s="6">
         <v>3</v>
       </c>
-      <c r="J14" s="7">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <f>SUMIF($G$3:$G$277, J14, $D$3:$D$277)</f>
-        <v>1</v>
-      </c>
-      <c r="L14" s="7">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <f>SUMIF($H$3:$H$277, L14,$D$3:$D$277)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
@@ -19388,20 +19464,6 @@
       <c r="H15" s="6">
         <v>3</v>
       </c>
-      <c r="J15" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="K15">
-        <f>SUMIF($G$3:$G$277, J15, $D$3:$D$277)</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="M15">
-        <f>SUMIF($H$3:$H$277, L15,$D$3:$D$277)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
@@ -19427,22 +19489,8 @@
       <c r="H16" s="7">
         <v>3</v>
       </c>
-      <c r="J16" s="7">
-        <v>6.5</v>
-      </c>
-      <c r="K16">
-        <f>SUMIF($G$3:$G$277, J16, $D$3:$D$277)</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="7">
-        <v>6.5</v>
-      </c>
-      <c r="M16">
-        <f>SUMIF($H$3:$H$277, L16,$D$3:$D$277)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <f>IF('Gesammelte Daten'!D16=0,"",'Gesammelte Daten'!C16)</f>
         <v>1</v>
@@ -19466,22 +19514,8 @@
       <c r="H17" s="7">
         <v>3</v>
       </c>
-      <c r="J17" s="7">
-        <v>7.5</v>
-      </c>
-      <c r="K17">
-        <f>SUMIF($G$3:$G$277, J17, $D$3:$D$277)</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="7">
-        <v>7.5</v>
-      </c>
-      <c r="M17">
-        <f>SUMIF($H$3:$H$277, L17,$D$3:$D$277)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <f>IF('Gesammelte Daten'!D17=0,"",'Gesammelte Daten'!C17)</f>
         <v>1</v>
@@ -19506,22 +19540,8 @@
         <v>3</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="7">
-        <v>8.5</v>
-      </c>
-      <c r="K18">
-        <f>SUMIF($G$3:$G$277, J18, $D$3:$D$277)</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="7">
-        <v>8.5</v>
-      </c>
-      <c r="M18">
-        <f>SUMIF($H$3:$H$277, L18,$D$3:$D$277)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF('Gesammelte Daten'!D18=0,"",'Gesammelte Daten'!C18)</f>
         <v/>
@@ -19546,22 +19566,8 @@
         <v>3</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="7">
-        <v>9</v>
-      </c>
-      <c r="K19">
-        <f>SUMIF($G$3:$G$277, J19, $D$3:$D$277)</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="7">
-        <v>9</v>
-      </c>
-      <c r="M19">
-        <f>SUMIF($H$3:$H$277, L19,$D$3:$D$277)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <f>IF('Gesammelte Daten'!D19=0,"",'Gesammelte Daten'!C19)</f>
         <v>1</v>
@@ -19587,7 +19593,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF('Gesammelte Daten'!D20=0,"",'Gesammelte Daten'!C20)</f>
         <v/>
@@ -19613,7 +19619,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <f>IF('Gesammelte Daten'!D21=0,"",'Gesammelte Daten'!C21)</f>
         <v>2</v>
@@ -19639,7 +19645,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <f>IF('Gesammelte Daten'!D22=0,"",'Gesammelte Daten'!C22)</f>
         <v>1</v>
@@ -19665,7 +19671,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF('Gesammelte Daten'!D23=0,"",'Gesammelte Daten'!C23)</f>
         <v/>
@@ -19690,7 +19696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <f>IF('Gesammelte Daten'!D24=0,"",'Gesammelte Daten'!C24)</f>
         <v>1</v>
@@ -19715,7 +19721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="str">
         <f>IF('Gesammelte Daten'!D25=0,"",'Gesammelte Daten'!C25)</f>
         <v/>
@@ -19740,7 +19746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="str">
         <f>IF('Gesammelte Daten'!D26=0,"",'Gesammelte Daten'!C26)</f>
         <v/>
@@ -19765,7 +19771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <f>IF('Gesammelte Daten'!D27=0,"",'Gesammelte Daten'!C27)</f>
         <v>1</v>
@@ -19790,7 +19796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="str">
         <f>IF('Gesammelte Daten'!D28=0,"",'Gesammelte Daten'!C28)</f>
         <v/>
@@ -19815,7 +19821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <f>IF('Gesammelte Daten'!D29=0,"",'Gesammelte Daten'!C29)</f>
         <v>1</v>
@@ -19840,7 +19846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <f>IF('Gesammelte Daten'!D30=0,"",'Gesammelte Daten'!C30)</f>
         <v>4</v>
@@ -19865,7 +19871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <f>IF('Gesammelte Daten'!D31=0,"",'Gesammelte Daten'!C31)</f>
         <v>1</v>
@@ -19909,10 +19915,10 @@
         <v>57</v>
       </c>
       <c r="G33" s="7">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H33" s="7">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -19934,10 +19940,10 @@
         <v>57</v>
       </c>
       <c r="G34" s="7">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H34" s="7">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -19959,10 +19965,10 @@
         <v>57</v>
       </c>
       <c r="G35" s="7">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H35" s="7">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -19984,10 +19990,10 @@
         <v>57</v>
       </c>
       <c r="G36" s="7">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H36" s="7">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -20009,10 +20015,10 @@
         <v>57</v>
       </c>
       <c r="G37" s="7">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H37" s="7">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -20034,10 +20040,10 @@
         <v>57</v>
       </c>
       <c r="G38" s="7">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H38" s="7">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -20059,10 +20065,10 @@
         <v>57</v>
       </c>
       <c r="G39" s="7">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H39" s="7">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -20084,10 +20090,10 @@
         <v>57</v>
       </c>
       <c r="G40" s="7">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H40" s="7">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -20109,10 +20115,10 @@
         <v>57</v>
       </c>
       <c r="G41" s="7">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H41" s="7">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -20134,10 +20140,10 @@
         <v>57</v>
       </c>
       <c r="G42" s="7">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H42" s="7">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -20159,10 +20165,10 @@
         <v>57</v>
       </c>
       <c r="G43" s="7">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H43" s="7">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -21259,10 +21265,10 @@
         <v>4.5</v>
       </c>
       <c r="G87" s="6">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H87" s="6">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -21309,10 +21315,10 @@
         <v>33</v>
       </c>
       <c r="G89" s="7">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H89" s="7">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -21334,10 +21340,10 @@
         <v>33</v>
       </c>
       <c r="G90" s="7">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H90" s="7">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -21359,10 +21365,10 @@
         <v>33</v>
       </c>
       <c r="G91" s="7">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H91" s="7">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -21384,10 +21390,10 @@
         <v>33</v>
       </c>
       <c r="G92" s="7">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H92" s="7">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -21409,10 +21415,10 @@
         <v>33</v>
       </c>
       <c r="G93" s="7">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H93" s="7">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -21434,10 +21440,10 @@
         <v>33</v>
       </c>
       <c r="G94" s="7">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H94" s="7">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -21459,10 +21465,10 @@
         <v>33</v>
       </c>
       <c r="G95" s="7">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H95" s="7">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -21484,10 +21490,10 @@
         <v>33</v>
       </c>
       <c r="G96" s="7">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H96" s="7">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -21509,10 +21515,10 @@
         <v>33</v>
       </c>
       <c r="G97" s="7">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H97" s="7">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -21534,10 +21540,10 @@
         <v>33</v>
       </c>
       <c r="G98" s="7">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H98" s="7">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -21559,10 +21565,10 @@
         <v>33</v>
       </c>
       <c r="G99" s="7">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H99" s="7">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -21584,10 +21590,10 @@
         <v>33</v>
       </c>
       <c r="G100" s="7">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H100" s="7">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -21609,10 +21615,10 @@
         <v>33</v>
       </c>
       <c r="G101" s="7">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H101" s="7">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -22209,10 +22215,10 @@
         <v>35</v>
       </c>
       <c r="G125" s="7">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H125" s="7">
-        <v>5.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -22234,10 +22240,10 @@
         <v>35</v>
       </c>
       <c r="G126" s="7">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H126" s="7">
-        <v>5.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -22787,7 +22793,7 @@
         <v>2</v>
       </c>
       <c r="H148" s="6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -23084,7 +23090,7 @@
         <v>54</v>
       </c>
       <c r="G160" s="6">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H160" s="6">
         <v>4</v>
@@ -23234,10 +23240,10 @@
         <v>113</v>
       </c>
       <c r="G166" s="6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H166" s="6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -23284,10 +23290,10 @@
         <v>47</v>
       </c>
       <c r="G168" s="6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H168" s="6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -23309,10 +23315,10 @@
         <v>47</v>
       </c>
       <c r="G169" s="6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H169" s="6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -23334,10 +23340,10 @@
         <v>33</v>
       </c>
       <c r="G170" s="7">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H170" s="7">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -23959,7 +23965,7 @@
         <v>78</v>
       </c>
       <c r="G195" s="6">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H195" s="6">
         <v>5</v>
@@ -23984,10 +23990,10 @@
         <v>106</v>
       </c>
       <c r="G196" s="6">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H196" s="6">
-        <v>5.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -24012,7 +24018,7 @@
         <v>4</v>
       </c>
       <c r="H197" s="6">
-        <v>5.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -24034,7 +24040,7 @@
         <v>22</v>
       </c>
       <c r="G198" s="6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H198" s="6">
         <v>6</v>
@@ -24059,10 +24065,10 @@
         <v>67</v>
       </c>
       <c r="G199" s="6">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H199" s="6">
-        <v>5.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -24084,10 +24090,10 @@
         <v>67</v>
       </c>
       <c r="G200" s="6">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H200" s="6">
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -24209,10 +24215,10 @@
         <v>35</v>
       </c>
       <c r="G205" s="7">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H205" s="7">
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -24309,7 +24315,7 @@
         <v>61</v>
       </c>
       <c r="G209" s="6">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H209" s="6">
         <v>6</v>
@@ -24562,7 +24568,7 @@
         <v>3</v>
       </c>
       <c r="H219" s="6">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -24584,7 +24590,7 @@
         <v>102</v>
       </c>
       <c r="G220" s="6">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H220" s="6">
         <v>5</v>
@@ -24709,7 +24715,7 @@
         <v>47</v>
       </c>
       <c r="G225" s="6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H225" s="6">
         <v>5</v>
@@ -24734,7 +24740,7 @@
         <v>47</v>
       </c>
       <c r="G226" s="6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H226" s="6">
         <v>5</v>
@@ -24759,7 +24765,7 @@
         <v>47</v>
       </c>
       <c r="G227" s="6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H227" s="6">
         <v>5</v>
@@ -24784,7 +24790,7 @@
         <v>47</v>
       </c>
       <c r="G228" s="6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H228" s="6">
         <v>5</v>
@@ -24812,7 +24818,7 @@
         <v>3</v>
       </c>
       <c r="H229" s="6">
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -24837,7 +24843,7 @@
         <v>3</v>
       </c>
       <c r="H230" s="6">
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -24984,7 +24990,7 @@
         <v>22</v>
       </c>
       <c r="G236" s="6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H236" s="6">
         <v>6</v>
@@ -25034,10 +25040,10 @@
         <v>67</v>
       </c>
       <c r="G238" s="6">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H238" s="6">
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -25334,7 +25340,7 @@
         <v>47</v>
       </c>
       <c r="G250" s="6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H250" s="6">
         <v>5</v>
@@ -25359,7 +25365,7 @@
         <v>47</v>
       </c>
       <c r="G251" s="6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H251" s="6">
         <v>5</v>
@@ -25384,7 +25390,7 @@
         <v>47</v>
       </c>
       <c r="G252" s="6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H252" s="6">
         <v>5</v>
@@ -28906,9 +28912,10 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="L3:M19">
-    <sortCondition descending="1" ref="M3:M19"/>
+  <sortState ref="M3:N11">
+    <sortCondition descending="1" ref="N3:N11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/Bericht/05_Technischer Bericht/03_Vorstudie/Passantenanalyse_Auswertung.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/03_Vorstudie/Passantenanalyse_Auswertung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="15315" windowHeight="12075" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="15315" windowHeight="6660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gesammelte Daten" sheetId="1" r:id="rId1"/>
@@ -759,6 +759,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1039,11 +1040,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104983168"/>
-        <c:axId val="107774336"/>
+        <c:axId val="106818176"/>
+        <c:axId val="106922368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104983168"/>
+        <c:axId val="106818176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1052,7 +1053,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107774336"/>
+        <c:crossAx val="106922368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1060,7 +1061,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107774336"/>
+        <c:axId val="106922368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,13 +1072,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104983168"/>
+        <c:crossAx val="106818176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1220,11 +1222,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="108282624"/>
-        <c:axId val="108284544"/>
+        <c:axId val="107700992"/>
+        <c:axId val="107702912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108282624"/>
+        <c:axId val="107700992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1246,12 +1248,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108284544"/>
+        <c:crossAx val="107702912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1259,7 +1262,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108284544"/>
+        <c:axId val="107702912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1270,7 +1273,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108282624"/>
+        <c:crossAx val="107700992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1446,11 +1449,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108530688"/>
-        <c:axId val="108545152"/>
+        <c:axId val="107949056"/>
+        <c:axId val="107959424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108530688"/>
+        <c:axId val="107949056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1478,7 +1481,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108545152"/>
+        <c:crossAx val="107959424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1486,7 +1489,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108545152"/>
+        <c:axId val="107959424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1497,7 +1500,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108530688"/>
+        <c:crossAx val="107949056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8798,10 +8801,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9174,6 +9177,12 @@
       <c r="B46">
         <f>SUMIF('Gesammelte Daten'!$B$2:$B$549,A46,'Gesammelte Daten'!$C$2:$C$549)</f>
         <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f>SUM(B2:B46)</f>
+        <v>1512</v>
       </c>
     </row>
   </sheetData>
@@ -9188,7 +9197,7 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="A2" sqref="A2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18833,7 +18842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q550"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
@@ -18934,7 +18943,7 @@
         <v>4</v>
       </c>
       <c r="K3">
-        <f>SUMIF($G$3:$G$277, J3, $D$3:$D$277)</f>
+        <f t="shared" ref="K3:K11" si="0">SUMIF($G$3:$G$277, J3, $D$3:$D$277)</f>
         <v>112</v>
       </c>
       <c r="L3" s="8">
@@ -18945,7 +18954,7 @@
         <v>5</v>
       </c>
       <c r="N3">
-        <f>SUMIF($H$3:$H$277, M3,$D$3:$D$277)</f>
+        <f t="shared" ref="N3:N11" si="1">SUMIF($H$3:$H$277, M3,$D$3:$D$277)</f>
         <v>86</v>
       </c>
       <c r="O3" s="8">
@@ -18985,26 +18994,26 @@
         <v>3</v>
       </c>
       <c r="K4">
-        <f>SUMIF($G$3:$G$277, J4, $D$3:$D$277)</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="L4" s="8">
-        <f t="shared" ref="L4:L11" si="0">(K4/SUM($K$3:$K$11))</f>
+        <f t="shared" ref="L4:L11" si="2">(K4/SUM($K$3:$K$11))</f>
         <v>0.2690909090909091</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
       </c>
       <c r="N4">
-        <f>SUMIF($H$3:$H$277, M4,$D$3:$D$277)</f>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="O4" s="8">
-        <f t="shared" ref="O4:O11" si="1">(N4/SUM($N$3:$N$11))</f>
+        <f t="shared" ref="O4:O11" si="3">(N4/SUM($N$3:$N$11))</f>
         <v>0.28727272727272729</v>
       </c>
       <c r="P4" s="8">
-        <f t="shared" ref="P4:P11" si="2">((L4+O4)/2)</f>
+        <f t="shared" ref="P4:P11" si="4">((L4+O4)/2)</f>
         <v>0.2781818181818182</v>
       </c>
     </row>
@@ -19036,26 +19045,26 @@
         <v>5</v>
       </c>
       <c r="K5">
-        <f>SUMIF($G$3:$G$277, J5, $D$3:$D$277)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="L5" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.15272727272727274</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
       </c>
       <c r="N5">
-        <f>SUMIF($H$3:$H$277, M5,$D$3:$D$277)</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="O5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.16</v>
       </c>
       <c r="P5" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.15636363636363637</v>
       </c>
     </row>
@@ -19087,26 +19096,26 @@
         <v>2</v>
       </c>
       <c r="K6">
-        <f>SUMIF($G$3:$G$277, J6, $D$3:$D$277)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="L6" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.3636363636363634E-2</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
       </c>
       <c r="N6">
-        <f>SUMIF($H$3:$H$277, M6,$D$3:$D$277)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="O6" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.12727272727272726</v>
       </c>
       <c r="P6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.10545454545454544</v>
       </c>
     </row>
@@ -19138,26 +19147,26 @@
         <v>6</v>
       </c>
       <c r="K7">
-        <f>SUMIF($G$3:$G$277, J7, $D$3:$D$277)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="L7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.545454545454546E-2</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
       </c>
       <c r="N7">
-        <f>SUMIF($H$3:$H$277, M7,$D$3:$D$277)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="O7" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.4545454545454543E-2</v>
       </c>
       <c r="P7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.06</v>
       </c>
     </row>
@@ -19189,26 +19198,26 @@
         <v>8</v>
       </c>
       <c r="K8">
-        <f>SUMIF($G$3:$G$277, J8, $D$3:$D$277)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="L8" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.090909090909091E-2</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
       </c>
       <c r="N8">
-        <f>SUMIF($H$3:$H$277, M8,$D$3:$D$277)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="O8" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.272727272727273E-2</v>
       </c>
       <c r="P8" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.181818181818182E-2</v>
       </c>
     </row>
@@ -19240,26 +19249,26 @@
         <v>7</v>
       </c>
       <c r="K9">
-        <f>SUMIF($G$3:$G$277, J9, $D$3:$D$277)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="L9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.2727272727272727E-3</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
       </c>
       <c r="N9">
-        <f>SUMIF($H$3:$H$277, M9,$D$3:$D$277)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="O9" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.5454545454545455E-2</v>
       </c>
       <c r="P9" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.6363636363636365E-2</v>
       </c>
     </row>
@@ -19291,26 +19300,26 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <f>SUMIF($G$3:$G$277, J10, $D$3:$D$277)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.6363636363636364E-3</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="N10">
-        <f>SUMIF($H$3:$H$277, M10,$D$3:$D$277)</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="O10" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P10" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.8181818181818182E-3</v>
       </c>
     </row>
@@ -19342,26 +19351,26 @@
         <v>9</v>
       </c>
       <c r="K11">
-        <f>SUMIF($G$3:$G$277, J11, $D$3:$D$277)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L11" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M11" s="7">
         <v>9</v>
       </c>
       <c r="N11">
-        <f>SUMIF($H$3:$H$277, M11,$D$3:$D$277)</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="O11" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P11" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
